--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
@@ -23,22 +23,22 @@
     <x:t>SUM(C3:D3)</x:t>
   </x:si>
   <x:si>
+    <x:t>Avg:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Average(C3:D4)</x:t>
+  </x:si>
+  <x:si>
     <x:t>SUM(C4:D4)</x:t>
   </x:si>
   <x:si>
+    <x:t>Sum:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sum(C3:C4)</x:t>
+  </x:si>
+  <x:si>
     <x:t>Sum(D3:D4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Avg:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Average(C3:D4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sum(C3:C4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sum:</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -437,7 +437,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G6"/>
+  <x:dimension ref="A1:G7"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -468,7 +468,7 @@
         <x:f>SUM(C3:D3)</x:f>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G3" s="0">
         <x:f>Average(C3:D4)</x:f>
@@ -490,7 +490,7 @@
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s"/>
       <x:c r="B5" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C5" s="0">
         <x:f>Sum(C3:C4)</x:f>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
@@ -441,10 +441,9 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="3" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="2" width="9.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
@@ -529,10 +528,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="0">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
@@ -125,21 +125,35 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -447,61 +461,61 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
-      <x:c r="A1" s="0" t="s"/>
-      <x:c r="B1" s="0" t="s"/>
+      <x:c r="A1" s="2" t="s"/>
+      <x:c r="B1" s="2" t="s"/>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
+      <x:c r="A2" s="2" t="s"/>
+      <x:c r="B2" s="2" t="s"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="0" t="s"/>
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="A3" s="2" t="s"/>
+      <x:c r="B3" s="2" t="s"/>
+      <x:c r="C3" s="2" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="n">
+      <x:c r="D3" s="2" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E3" s="0">
+      <x:c r="E3" s="2">
         <x:f>SUM(C3:D3)</x:f>
       </x:c>
-      <x:c r="F3" s="1" t="s">
+      <x:c r="F3" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G3" s="0">
+      <x:c r="G3" s="2">
         <x:f>Average(C3:D4)</x:f>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="0" t="s"/>
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="A4" s="2" t="s"/>
+      <x:c r="B4" s="2" t="s"/>
+      <x:c r="C4" s="2" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="2" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E4" s="0">
+      <x:c r="E4" s="2">
         <x:f>SUM(C4:D4)</x:f>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="s"/>
-      <x:c r="B5" s="1" t="s">
+      <x:c r="A5" s="2" t="s"/>
+      <x:c r="B5" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C5" s="0">
+      <x:c r="C5" s="2">
         <x:f>Sum(C3:C4)</x:f>
       </x:c>
-      <x:c r="D5" s="0">
+      <x:c r="D5" s="2">
         <x:f>Sum(D3:D4)</x:f>
       </x:c>
-      <x:c r="E5" s="0" t="s"/>
+      <x:c r="E5" s="2" t="s"/>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="0" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
+      <x:c r="A6" s="2" t="s"/>
+      <x:c r="B6" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -531,50 +545,50 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="0">
+      <x:c r="A1" s="2">
         <x:f>'Shifting Formulas'!C3</x:f>
       </x:c>
-      <x:c r="B1" s="0" t="n">
+      <x:c r="B1" s="2" t="n">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="0">
+      <x:c r="A2" s="2">
         <x:f>Average('Shifting Formulas'!$C$3:$D$4)</x:f>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" s="0">
+      <x:c r="A3" s="2">
         <x:f>Average('Shifting Formulas'!$C$3:$D4)</x:f>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0">
+      <x:c r="A4" s="2">
         <x:f>Average('Shifting Formulas'!$C$3:D4)</x:f>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0">
+      <x:c r="A5" s="2">
         <x:f>Average('Shifting Formulas'!$C3:D4)</x:f>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
-      <x:c r="A6" s="0">
+      <x:c r="A6" s="2">
         <x:f>Average('Shifting Formulas'!C3:D4)</x:f>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="A7" s="0">
+      <x:c r="A7" s="2">
         <x:f>Average('Shifting Formulas'!C3:D$4)</x:f>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
-      <x:c r="A8" s="0">
+      <x:c r="A8" s="2">
         <x:f>Average('Shifting Formulas'!C3:$D$4)</x:f>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
-      <x:c r="A9" s="0">
+      <x:c r="A9" s="2">
         <x:f>Average('Shifting Formulas'!C$3:$D$4)</x:f>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
@@ -125,13 +125,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -139,21 +133,13 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -461,61 +447,55 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
-      <x:c r="A1" s="2" t="s"/>
-      <x:c r="B1" s="2" t="s"/>
+      <x:c r="B1" s="0" t="s"/>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="A2" s="2" t="s"/>
-      <x:c r="B2" s="2" t="s"/>
+      <x:c r="B2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="2" t="s"/>
-      <x:c r="B3" s="2" t="s"/>
-      <x:c r="C3" s="2" t="n">
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="n">
+      <x:c r="D3" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E3" s="2">
+      <x:c r="E3" s="0">
         <x:f>SUM(C3:D3)</x:f>
       </x:c>
-      <x:c r="F3" s="3" t="s">
+      <x:c r="F3" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G3" s="2">
+      <x:c r="G3" s="0">
         <x:f>Average(C3:D4)</x:f>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="2" t="s"/>
-      <x:c r="B4" s="2" t="s"/>
-      <x:c r="C4" s="2" t="n">
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="n">
+      <x:c r="D4" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E4" s="2">
+      <x:c r="E4" s="0">
         <x:f>SUM(C4:D4)</x:f>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="2" t="s"/>
-      <x:c r="B5" s="3" t="s">
+      <x:c r="B5" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C5" s="2">
+      <x:c r="C5" s="0">
         <x:f>Sum(C3:C4)</x:f>
       </x:c>
-      <x:c r="D5" s="2">
+      <x:c r="D5" s="0">
         <x:f>Sum(D3:D4)</x:f>
       </x:c>
-      <x:c r="E5" s="2" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="2" t="s"/>
-      <x:c r="B6" s="2" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -545,50 +525,50 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="2">
+      <x:c r="A1" s="0">
         <x:f>'Shifting Formulas'!C3</x:f>
       </x:c>
-      <x:c r="B1" s="2" t="n">
+      <x:c r="B1" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="2">
+      <x:c r="A2" s="0">
         <x:f>Average('Shifting Formulas'!$C$3:$D$4)</x:f>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" s="2">
+      <x:c r="A3" s="0">
         <x:f>Average('Shifting Formulas'!$C$3:$D4)</x:f>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="A4" s="2">
+      <x:c r="A4" s="0">
         <x:f>Average('Shifting Formulas'!$C$3:D4)</x:f>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="A5" s="2">
+      <x:c r="A5" s="0">
         <x:f>Average('Shifting Formulas'!$C3:D4)</x:f>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
-      <x:c r="A6" s="2">
+      <x:c r="A6" s="0">
         <x:f>Average('Shifting Formulas'!C3:D4)</x:f>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="A7" s="2">
+      <x:c r="A7" s="0">
         <x:f>Average('Shifting Formulas'!C3:D$4)</x:f>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
-      <x:c r="A8" s="2">
+      <x:c r="A8" s="0">
         <x:f>Average('Shifting Formulas'!C3:$D$4)</x:f>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
-      <x:c r="A9" s="2">
+      <x:c r="A9" s="0">
         <x:f>Average('Shifting Formulas'!C$3:$D$4)</x:f>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
@@ -501,14 +501,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -576,14 +569,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
@@ -10,8 +10,8 @@
     <x:sheet name="WS2" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="WorksheetB4C4" localSheetId="0">'Shifting Formulas'!$B$4:$C$4</x:definedName>
-    <x:definedName name="WorkbookB4C4">'Shifting Formulas'!$B$4:$C$4</x:definedName>
+    <x:definedName name="WorksheetB4C4" localSheetId="0">'Shifting Formulas'!$C$5:$D$5</x:definedName>
+    <x:definedName name="WorkbookB4C4">'Shifting Formulas'!$C$5:$D$5</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
@@ -18,54 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <x:si>
-    <x:t>SUM(C3:D3)</x:t>
-  </x:si>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <x:si>
     <x:t>Avg:</x:t>
   </x:si>
   <x:si>
-    <x:t>Average(C3:D4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SUM(C4:D4)</x:t>
-  </x:si>
-  <x:si>
     <x:t>Sum:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sum(C3:C4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sum(D3:D4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Average('Shifting Formulas'!$C$3:$D$4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Average('Shifting Formulas'!$C$3:$D4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Average('Shifting Formulas'!$C$3:D4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Average('Shifting Formulas'!$C3:D4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Average('Shifting Formulas'!C3:D4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Average('Shifting Formulas'!C3:D$4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Average('Shifting Formulas'!C3:$D$4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Average('Shifting Formulas'!C$3:$D$4)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -464,7 +422,7 @@
         <x:f>SUM(C3:D3)</x:f>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G3" s="0">
         <x:f>Average(C3:D4)</x:f>
@@ -484,7 +442,7 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="B5" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="0">
         <x:f>Sum(C3:C4)</x:f>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
@@ -33,7 +33,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -43,6 +43,13 @@
     </x:font>
     <x:font>
       <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -451,6 +458,7 @@
         <x:f>Sum(D3:D4)</x:f>
       </x:c>
       <x:c r="E5" s="0" t="s"/>
+      <x:c r="G5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="B6" s="0" t="s"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
@@ -404,7 +404,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:G7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -479,7 +479,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:B9"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
@@ -91,19 +91,19 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/ShiftingFormulas.xlsx
@@ -411,14 +411,9 @@
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
-      <x:c r="B1" s="0" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:7">
-      <x:c r="B2" s="0" t="s"/>
-    </x:row>
+    <x:row r="1" spans="1:7"/>
+    <x:row r="2" spans="1:7"/>
     <x:row r="3" spans="1:7">
-      <x:c r="B3" s="0" t="s"/>
       <x:c r="C3" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
@@ -436,7 +431,6 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="B4" s="0" t="s"/>
       <x:c r="C4" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
@@ -457,12 +451,8 @@
       <x:c r="D5" s="0">
         <x:f>Sum(D3:D4)</x:f>
       </x:c>
-      <x:c r="E5" s="0" t="s"/>
-      <x:c r="G5" s="0" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:7">
-      <x:c r="B6" s="0" t="s"/>
-    </x:row>
+    </x:row>
+    <x:row r="6" spans="1:7"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
